--- a/data/trans_media/P34F2_MIN_2023-Provincia-trans_media.xlsx
+++ b/data/trans_media/P34F2_MIN_2023-Provincia-trans_media.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,23; 27,2</t>
+          <t>23,22; 27,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,54; 26,48</t>
+          <t>23,64; 26,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,94; 26,17</t>
+          <t>23,96; 26,24</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,64; 25,67</t>
+          <t>20,69; 26,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,1; 21,33</t>
+          <t>18,15; 21,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,84; 22,89</t>
+          <t>19,93; 22,87</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 21,13</t>
+          <t>16,94; 21,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,67; 22,07</t>
+          <t>18,62; 22,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 21,27</t>
+          <t>18,36; 21,18</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 22,24</t>
+          <t>17,0; 21,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 19,86</t>
+          <t>15,51; 19,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 20,25</t>
+          <t>16,73; 20,14</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,46; 21,85</t>
+          <t>15,48; 22,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,03</t>
+          <t>17,85; 24,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,44; 21,68</t>
+          <t>17,48; 21,83</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,71; 19,36</t>
+          <t>15,63; 19,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,62; 20,59</t>
+          <t>16,57; 20,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 19,46</t>
+          <t>16,58; 19,5</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,36; 21,44</t>
+          <t>17,47; 21,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,96; 18,56</t>
+          <t>10,81; 18,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,44; 19,08</t>
+          <t>13,95; 19,05</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,86; 24,26</t>
+          <t>20,86; 24,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,65; 24,19</t>
+          <t>21,76; 24,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,68; 23,86</t>
+          <t>21,74; 23,8</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,27; 21,98</t>
+          <t>20,31; 21,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,98; 20,78</t>
+          <t>17,9; 20,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,4; 21,06</t>
+          <t>19,35; 21,04</t>
         </is>
       </c>
     </row>
